--- a/rawcode/importance.xlsx
+++ b/rawcode/importance.xlsx
@@ -271,6 +271,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -288,7 +289,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,7 +305,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00CC33"/>
-        <bgColor rgb="FF339966"/>
+        <bgColor rgb="FF00CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC00"/>
+        <bgColor rgb="FF00CC33"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF3300"/>
       </patternFill>
     </fill>
     <fill>
@@ -315,8 +328,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor rgb="FFFF3333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF3300"/>
       </patternFill>
     </fill>
   </fills>
@@ -354,7 +373,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -375,6 +394,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -388,8 +419,8 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00CC33"/>
+      <rgbColor rgb="FFFF3300"/>
+      <rgbColor rgb="FF00CC00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -403,7 +434,7 @@
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -435,7 +466,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00CC33"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -455,15 +486,15 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8520408163265"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -710,7 +741,7 @@
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -730,7 +761,7 @@
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -770,7 +801,7 @@
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -790,7 +821,7 @@
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -810,7 +841,7 @@
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -830,7 +861,7 @@
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -850,7 +881,7 @@
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -870,7 +901,7 @@
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -890,7 +921,7 @@
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -953,7 +984,7 @@
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -973,7 +1004,7 @@
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="0" t="n">
